--- a/www.eia.gov/electricity/monthly/xls/table_1_10_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_1_10_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="81">
   <si>
     <t>Table 1.10.A. Utility Scale Facility Net Generation from Hydroelectric (Conventional) Power</t>
   </si>
   <si>
-    <t>by State, by Sector, October 2016 and 2015 (Thousand Megawatthours)</t>
+    <t>by State, by Sector, November 2016 and 2015 (Thousand Megawatthours)</t>
   </si>
   <si>
     <t/>
@@ -67,10 +67,10 @@
 and State</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>Percentage
@@ -1392,37 +1392,37 @@
         <v>16</v>
       </c>
       <c r="B7" s="10">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C7" s="10">
-        <v>444</v>
+        <v>474</v>
       </c>
       <c r="D7" s="11">
-        <v>-0.188</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>17</v>
+        <v>-0.24199999999999999</v>
+      </c>
+      <c r="E7" s="10">
+        <v>46</v>
       </c>
       <c r="F7" s="10">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G7" s="10">
         <v>296</v>
       </c>
       <c r="H7" s="10">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J7" s="10">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>17</v>
+        <v>0.45</v>
+      </c>
+      <c r="K7" s="10">
+        <v>18</v>
       </c>
       <c r="L7" s="10">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1448,7 +1448,7 @@
         <v>17</v>
       </c>
       <c r="H8" s="13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I8" s="13">
         <v>0</v>
@@ -1468,13 +1468,13 @@
         <v>19</v>
       </c>
       <c r="B9" s="13">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C9" s="13">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="D9" s="14">
-        <v>-0.22</v>
+        <v>-0.16700000000000001</v>
       </c>
       <c r="E9" s="13">
         <v>0</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="13">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H9" s="13">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="I9" s="13">
         <v>0</v>
@@ -1494,49 +1494,49 @@
       <c r="J9" s="13">
         <v>0</v>
       </c>
-      <c r="K9" s="13" t="s">
-        <v>17</v>
+      <c r="K9" s="13">
+        <v>18</v>
       </c>
       <c r="L9" s="13">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>17</v>
+      <c r="B10" s="13">
+        <v>44</v>
       </c>
       <c r="C10" s="13">
-        <v>42</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>17</v>
+        <v>66</v>
+      </c>
+      <c r="D10" s="14">
+        <v>-0.34200000000000003</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="13">
-        <v>10</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="G10" s="13">
+        <v>34</v>
       </c>
       <c r="H10" s="13">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>17</v>
       </c>
       <c r="J10" s="13">
-        <v>0.28999999999999998</v>
+        <v>0.45</v>
       </c>
       <c r="K10" s="13" t="s">
         <v>17</v>
       </c>
       <c r="L10" s="13">
-        <v>0.24</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1544,22 +1544,22 @@
         <v>21</v>
       </c>
       <c r="B11" s="13">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C11" s="13">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D11" s="14">
-        <v>-0.39800000000000002</v>
-      </c>
-      <c r="E11" s="13" t="s">
+        <v>-0.253</v>
+      </c>
+      <c r="E11" s="13">
         <v>17</v>
       </c>
       <c r="F11" s="13">
-        <v>20</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="G11" s="13">
+        <v>44</v>
       </c>
       <c r="H11" s="13">
         <v>58</v>
@@ -1619,26 +1619,26 @@
       <c r="A13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>17</v>
+      <c r="B13" s="13">
+        <v>57</v>
       </c>
       <c r="C13" s="13">
-        <v>61</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>17</v>
+        <v>82</v>
+      </c>
+      <c r="D13" s="14">
+        <v>-0.308</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="13">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H13" s="13">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I13" s="13">
         <v>0</v>
@@ -1658,31 +1658,31 @@
         <v>24</v>
       </c>
       <c r="B14" s="10">
-        <v>2133</v>
+        <v>2237</v>
       </c>
       <c r="C14" s="10">
-        <v>2289</v>
+        <v>2468</v>
       </c>
       <c r="D14" s="11">
-        <v>-6.8000000000000005E-2</v>
+        <v>-9.4E-2</v>
       </c>
       <c r="E14" s="10">
-        <v>1798</v>
+        <v>1937</v>
       </c>
       <c r="F14" s="10">
-        <v>1882</v>
+        <v>1949</v>
       </c>
       <c r="G14" s="10">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="H14" s="10">
-        <v>401</v>
+        <v>514</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J14" s="10">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>17</v>
@@ -1734,31 +1734,31 @@
         <v>26</v>
       </c>
       <c r="B16" s="13">
-        <v>2008</v>
+        <v>2119</v>
       </c>
       <c r="C16" s="13">
-        <v>2184</v>
+        <v>2287</v>
       </c>
       <c r="D16" s="14">
-        <v>-0.08</v>
+        <v>-7.2999999999999995E-2</v>
       </c>
       <c r="E16" s="13">
-        <v>1794</v>
+        <v>1935</v>
       </c>
       <c r="F16" s="13">
-        <v>1879</v>
+        <v>1944</v>
       </c>
       <c r="G16" s="13">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="H16" s="13">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>17</v>
       </c>
       <c r="J16" s="13">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="K16" s="13" t="s">
         <v>17</v>
@@ -1772,25 +1772,25 @@
         <v>27</v>
       </c>
       <c r="B17" s="13">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C17" s="13">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="D17" s="14">
-        <v>0.186</v>
+        <v>-0.35499999999999998</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" s="13">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H17" s="13">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c r="I17" s="13">
         <v>0</v>
@@ -1810,37 +1810,37 @@
         <v>28</v>
       </c>
       <c r="B18" s="10">
-        <v>353</v>
+        <v>420</v>
       </c>
       <c r="C18" s="10">
-        <v>420</v>
+        <v>610</v>
       </c>
       <c r="D18" s="11">
-        <v>-0.161</v>
+        <v>-0.312</v>
       </c>
       <c r="E18" s="10">
-        <v>308</v>
+        <v>370</v>
       </c>
       <c r="F18" s="10">
-        <v>361</v>
+        <v>519</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>17</v>
       </c>
       <c r="H18" s="10">
-        <v>41</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>17</v>
+        <v>65</v>
+      </c>
+      <c r="I18" s="10">
+        <v>0</v>
       </c>
       <c r="J18" s="10">
-        <v>7.0000000000000007E-2</v>
+        <v>0.13</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>17</v>
       </c>
       <c r="L18" s="10">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1851,7 +1851,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>17</v>
@@ -1860,19 +1860,19 @@
         <v>17</v>
       </c>
       <c r="F19" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H19" s="13">
-        <v>4</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0</v>
       </c>
       <c r="J19" s="13">
-        <v>7.0000000000000007E-2</v>
+        <v>0.13</v>
       </c>
       <c r="K19" s="13">
         <v>0</v>
@@ -1886,19 +1886,19 @@
         <v>30</v>
       </c>
       <c r="B20" s="13">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C20" s="13">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D20" s="14">
-        <v>-0.21</v>
+        <v>-0.24199999999999999</v>
       </c>
       <c r="E20" s="13">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F20" s="13">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G20" s="13">
         <v>0</v>
@@ -1924,25 +1924,25 @@
         <v>31</v>
       </c>
       <c r="B21" s="13">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="C21" s="13">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="D21" s="14">
-        <v>0.34399999999999997</v>
+        <v>-7.6999999999999999E-2</v>
       </c>
       <c r="E21" s="13">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="F21" s="13">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H21" s="13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I21" s="13">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>17</v>
       </c>
       <c r="L21" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1962,25 +1962,25 @@
         <v>32</v>
       </c>
       <c r="B22" s="13">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C22" s="13">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D22" s="14">
-        <v>-0.11</v>
+        <v>-0.4</v>
       </c>
       <c r="E22" s="13">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F22" s="13">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H22" s="13">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I22" s="13">
         <v>0</v>
@@ -2000,25 +2000,25 @@
         <v>33</v>
       </c>
       <c r="B23" s="13">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="C23" s="13">
-        <v>245</v>
+        <v>335</v>
       </c>
       <c r="D23" s="14">
-        <v>-0.33600000000000002</v>
+        <v>-0.40300000000000002</v>
       </c>
       <c r="E23" s="13">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="F23" s="13">
-        <v>218</v>
+        <v>297</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H23" s="13">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I23" s="13">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>17</v>
       </c>
       <c r="L23" s="13">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2038,25 +2038,25 @@
         <v>34</v>
       </c>
       <c r="B24" s="10">
-        <v>708</v>
+        <v>762</v>
       </c>
       <c r="C24" s="10">
-        <v>815</v>
+        <v>788</v>
       </c>
       <c r="D24" s="11">
-        <v>-0.13100000000000001</v>
+        <v>-3.4000000000000002E-2</v>
       </c>
       <c r="E24" s="10">
-        <v>683</v>
+        <v>734</v>
       </c>
       <c r="F24" s="10">
-        <v>784</v>
+        <v>754</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>17</v>
       </c>
       <c r="H24" s="10">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I24" s="10">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>17</v>
       </c>
       <c r="L24" s="10">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2076,25 +2076,25 @@
         <v>35</v>
       </c>
       <c r="B25" s="13">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C25" s="13">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D25" s="14">
-        <v>4.2000000000000003E-2</v>
+        <v>0.373</v>
       </c>
       <c r="E25" s="13">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="F25" s="13">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H25" s="13">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="I25" s="13">
         <v>0</v>
@@ -2152,25 +2152,25 @@
         <v>37</v>
       </c>
       <c r="B27" s="13">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C27" s="13">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D27" s="14">
-        <v>-0.23799999999999999</v>
+        <v>-0.2</v>
       </c>
       <c r="E27" s="13">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F27" s="13">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H27" s="13">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I27" s="13">
         <v>0</v>
@@ -2182,7 +2182,7 @@
         <v>17</v>
       </c>
       <c r="L27" s="13">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2190,19 +2190,19 @@
         <v>38</v>
       </c>
       <c r="B28" s="13">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C28" s="13">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="D28" s="14">
-        <v>0.81299999999999994</v>
+        <v>-0.51</v>
       </c>
       <c r="E28" s="13">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="F28" s="13">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="G28" s="13">
         <v>0</v>
@@ -2228,19 +2228,19 @@
         <v>39</v>
       </c>
       <c r="B29" s="13">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="C29" s="13">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D29" s="14">
-        <v>5.1999999999999998E-2</v>
+        <v>0.372</v>
       </c>
       <c r="E29" s="13">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="F29" s="13">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G29" s="13">
         <v>0</v>
@@ -2266,19 +2266,19 @@
         <v>40</v>
       </c>
       <c r="B30" s="13">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C30" s="13">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D30" s="14">
-        <v>-1.7000000000000001E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E30" s="13">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F30" s="13">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G30" s="13">
         <v>0</v>
@@ -2304,19 +2304,19 @@
         <v>41</v>
       </c>
       <c r="B31" s="13">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="C31" s="13">
-        <v>403</v>
+        <v>349</v>
       </c>
       <c r="D31" s="14">
-        <v>-0.29299999999999998</v>
+        <v>-0.112</v>
       </c>
       <c r="E31" s="13">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="F31" s="13">
-        <v>403</v>
+        <v>349</v>
       </c>
       <c r="G31" s="13">
         <v>0</v>
@@ -2342,37 +2342,37 @@
         <v>42</v>
       </c>
       <c r="B32" s="10">
-        <v>924</v>
+        <v>635</v>
       </c>
       <c r="C32" s="10">
-        <v>1342</v>
+        <v>1891</v>
       </c>
       <c r="D32" s="11">
-        <v>-0.312</v>
+        <v>-0.66400000000000003</v>
       </c>
       <c r="E32" s="10">
-        <v>788</v>
+        <v>514</v>
       </c>
       <c r="F32" s="10">
-        <v>1159</v>
+        <v>1669</v>
       </c>
       <c r="G32" s="10">
         <v>104</v>
       </c>
       <c r="H32" s="10">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J32" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K32" s="10">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="L32" s="10">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2459,7 +2459,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="13">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>17</v>
@@ -2468,7 +2468,7 @@
         <v>17</v>
       </c>
       <c r="F35" s="13">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G35" s="13">
         <v>0</v>
@@ -2494,19 +2494,19 @@
         <v>47</v>
       </c>
       <c r="B36" s="13">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="C36" s="13">
-        <v>206</v>
+        <v>383</v>
       </c>
       <c r="D36" s="14">
-        <v>-7.6999999999999999E-2</v>
+        <v>-0.56599999999999995</v>
       </c>
       <c r="E36" s="13">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="F36" s="13">
-        <v>204</v>
+        <v>379</v>
       </c>
       <c r="G36" s="13" t="s">
         <v>17</v>
@@ -2524,7 +2524,7 @@
         <v>17</v>
       </c>
       <c r="L36" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2532,13 +2532,13 @@
         <v>48</v>
       </c>
       <c r="B37" s="13">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C37" s="13">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D37" s="14">
-        <v>-0.35399999999999998</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="E37" s="13">
         <v>0</v>
@@ -2547,10 +2547,10 @@
         <v>0</v>
       </c>
       <c r="G37" s="13">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H37" s="13">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="I37" s="13">
         <v>0</v>
@@ -2570,25 +2570,25 @@
         <v>49</v>
       </c>
       <c r="B38" s="13">
-        <v>298</v>
+        <v>160</v>
       </c>
       <c r="C38" s="13">
-        <v>526</v>
+        <v>667</v>
       </c>
       <c r="D38" s="14">
-        <v>-0.433</v>
+        <v>-0.76</v>
       </c>
       <c r="E38" s="13">
-        <v>295</v>
+        <v>157</v>
       </c>
       <c r="F38" s="13">
-        <v>520</v>
+        <v>659</v>
       </c>
       <c r="G38" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H38" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I38" s="13" t="s">
         <v>17</v>
@@ -2608,31 +2608,31 @@
         <v>50</v>
       </c>
       <c r="B39" s="13">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="C39" s="13">
-        <v>258</v>
+        <v>517</v>
       </c>
       <c r="D39" s="14">
-        <v>-0.49399999999999999</v>
+        <v>-0.80700000000000005</v>
       </c>
       <c r="E39" s="13">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="F39" s="13">
-        <v>252</v>
+        <v>504</v>
       </c>
       <c r="G39" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H39" s="13">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I39" s="13" t="s">
         <v>17</v>
       </c>
       <c r="J39" s="13">
-        <v>0.24</v>
+        <v>0.47</v>
       </c>
       <c r="K39" s="13">
         <v>0</v>
@@ -2646,25 +2646,25 @@
         <v>51</v>
       </c>
       <c r="B40" s="13">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C40" s="13">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="D40" s="14">
-        <v>-5.7000000000000002E-2</v>
+        <v>-6.0999999999999999E-2</v>
       </c>
       <c r="E40" s="13">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="F40" s="13">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="G40" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H40" s="13">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I40" s="13">
         <v>0</v>
@@ -2684,25 +2684,25 @@
         <v>52</v>
       </c>
       <c r="B41" s="13">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C41" s="13">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="D41" s="14">
-        <v>2.9000000000000001E-2</v>
+        <v>-0.35799999999999998</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>17</v>
       </c>
       <c r="F41" s="13">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G41" s="13">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H41" s="13">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I41" s="13">
         <v>0</v>
@@ -2711,10 +2711,10 @@
         <v>0</v>
       </c>
       <c r="K41" s="13">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L41" s="13">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2722,19 +2722,19 @@
         <v>53</v>
       </c>
       <c r="B42" s="10">
-        <v>971</v>
+        <v>815</v>
       </c>
       <c r="C42" s="10">
-        <v>1753</v>
+        <v>2221</v>
       </c>
       <c r="D42" s="11">
-        <v>-0.44600000000000001</v>
+        <v>-0.63300000000000001</v>
       </c>
       <c r="E42" s="10">
-        <v>971</v>
+        <v>814</v>
       </c>
       <c r="F42" s="10">
-        <v>1752</v>
+        <v>2220</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>17</v>
@@ -2760,19 +2760,19 @@
         <v>54</v>
       </c>
       <c r="B43" s="13">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="C43" s="13">
-        <v>655</v>
+        <v>1024</v>
       </c>
       <c r="D43" s="14">
-        <v>-0.53400000000000003</v>
+        <v>-0.73799999999999999</v>
       </c>
       <c r="E43" s="13">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="F43" s="13">
-        <v>655</v>
+        <v>1024</v>
       </c>
       <c r="G43" s="13">
         <v>0</v>
@@ -2798,19 +2798,19 @@
         <v>55</v>
       </c>
       <c r="B44" s="13">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="C44" s="13">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="D44" s="14">
-        <v>-8.5999999999999993E-2</v>
+        <v>-0.27800000000000002</v>
       </c>
       <c r="E44" s="13">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="F44" s="13">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="G44" s="13" t="s">
         <v>17</v>
@@ -2874,19 +2874,19 @@
         <v>57</v>
       </c>
       <c r="B46" s="13">
-        <v>461</v>
+        <v>360</v>
       </c>
       <c r="C46" s="13">
-        <v>873</v>
+        <v>939</v>
       </c>
       <c r="D46" s="14">
-        <v>-0.47199999999999998</v>
+        <v>-0.61599999999999999</v>
       </c>
       <c r="E46" s="13">
-        <v>461</v>
+        <v>360</v>
       </c>
       <c r="F46" s="13">
-        <v>873</v>
+        <v>939</v>
       </c>
       <c r="G46" s="13">
         <v>0</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="B47" s="10">
-        <v>543</v>
+        <v>271</v>
       </c>
       <c r="C47" s="10">
-        <v>382</v>
+        <v>430</v>
       </c>
       <c r="D47" s="11">
-        <v>0.42199999999999999</v>
+        <v>-0.36899999999999999</v>
       </c>
       <c r="E47" s="10">
-        <v>447</v>
+        <v>210</v>
       </c>
       <c r="F47" s="10">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="G47" s="10">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="H47" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I47" s="10">
         <v>0</v>
@@ -2950,19 +2950,19 @@
         <v>59</v>
       </c>
       <c r="B48" s="13">
-        <v>227</v>
+        <v>114</v>
       </c>
       <c r="C48" s="13">
-        <v>291</v>
+        <v>184</v>
       </c>
       <c r="D48" s="14">
-        <v>-0.221</v>
+        <v>-0.379</v>
       </c>
       <c r="E48" s="13">
-        <v>224</v>
+        <v>111</v>
       </c>
       <c r="F48" s="13">
-        <v>287</v>
+        <v>181</v>
       </c>
       <c r="G48" s="13" t="s">
         <v>17</v>
@@ -2988,13 +2988,13 @@
         <v>60</v>
       </c>
       <c r="B49" s="13">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="C49" s="13">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D49" s="14">
-        <v>1.129</v>
+        <v>0.253</v>
       </c>
       <c r="E49" s="13">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="G49" s="13">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H49" s="13">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I49" s="13">
         <v>0</v>
@@ -3026,19 +3026,19 @@
         <v>61</v>
       </c>
       <c r="B50" s="13">
-        <v>182</v>
+        <v>63</v>
       </c>
       <c r="C50" s="13">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="D50" s="14">
-        <v>6.4329999999999998</v>
+        <v>-0.53800000000000003</v>
       </c>
       <c r="E50" s="13">
-        <v>182</v>
+        <v>63</v>
       </c>
       <c r="F50" s="13">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="G50" s="13">
         <v>0</v>
@@ -3063,26 +3063,26 @@
       <c r="A51" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B51" s="13" t="s">
-        <v>17</v>
+      <c r="B51" s="13">
+        <v>38</v>
       </c>
       <c r="C51" s="13">
-        <v>23</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>17</v>
+        <v>65</v>
+      </c>
+      <c r="D51" s="14">
+        <v>-0.41699999999999998</v>
+      </c>
+      <c r="E51" s="13">
+        <v>36</v>
       </c>
       <c r="F51" s="13">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="G51" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H51" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51" s="13">
         <v>0</v>
@@ -3102,31 +3102,31 @@
         <v>63</v>
       </c>
       <c r="B52" s="10">
-        <v>1938</v>
+        <v>2522</v>
       </c>
       <c r="C52" s="10">
-        <v>1695</v>
+        <v>1717</v>
       </c>
       <c r="D52" s="11">
-        <v>0.14299999999999999</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="E52" s="10">
-        <v>1876</v>
+        <v>2452</v>
       </c>
       <c r="F52" s="10">
-        <v>1646</v>
+        <v>1682</v>
       </c>
       <c r="G52" s="10">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H52" s="10">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J52" s="10">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="K52" s="10">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         <v>64</v>
       </c>
       <c r="B53" s="13">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="C53" s="13">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="D53" s="14">
-        <v>8.9999999999999993E-3</v>
+        <v>0.115</v>
       </c>
       <c r="E53" s="13">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="F53" s="13">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="G53" s="13">
         <v>0</v>
@@ -3178,31 +3178,31 @@
         <v>65</v>
       </c>
       <c r="B54" s="13">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="C54" s="13">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="D54" s="14">
-        <v>-5.6000000000000001E-2</v>
+        <v>6.3490000000000002</v>
       </c>
       <c r="E54" s="13">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="F54" s="13">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="G54" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H54" s="13">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I54" s="13" t="s">
         <v>17</v>
       </c>
       <c r="J54" s="13">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="K54" s="13">
         <v>0</v>
@@ -3216,25 +3216,25 @@
         <v>66</v>
       </c>
       <c r="B55" s="13">
-        <v>534</v>
+        <v>599</v>
       </c>
       <c r="C55" s="13">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="D55" s="14">
-        <v>0.37</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="E55" s="13">
-        <v>497</v>
+        <v>560</v>
       </c>
       <c r="F55" s="13">
-        <v>365</v>
-      </c>
-      <c r="G55" s="13">
-        <v>37</v>
+        <v>384</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="H55" s="13">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I55" s="13">
         <v>0</v>
@@ -3254,25 +3254,25 @@
         <v>67</v>
       </c>
       <c r="B56" s="13">
-        <v>635</v>
+        <v>1064</v>
       </c>
       <c r="C56" s="13">
-        <v>525</v>
+        <v>627</v>
       </c>
       <c r="D56" s="14">
-        <v>0.20799999999999999</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="E56" s="13">
-        <v>625</v>
+        <v>1052</v>
       </c>
       <c r="F56" s="13">
-        <v>518</v>
+        <v>618</v>
       </c>
       <c r="G56" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H56" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I56" s="13">
         <v>0</v>
@@ -3292,19 +3292,19 @@
         <v>68</v>
       </c>
       <c r="B57" s="13">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="C57" s="13">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="D57" s="14">
-        <v>-0.16700000000000001</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="E57" s="13">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="F57" s="13">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="G57" s="13" t="s">
         <v>17</v>
@@ -3368,25 +3368,25 @@
         <v>70</v>
       </c>
       <c r="B59" s="13">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C59" s="13">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D59" s="14">
-        <v>0.23699999999999999</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="E59" s="13">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F59" s="13">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G59" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H59" s="13">
-        <v>0.49</v>
+        <v>1</v>
       </c>
       <c r="I59" s="13">
         <v>0</v>
@@ -3406,25 +3406,25 @@
         <v>71</v>
       </c>
       <c r="B60" s="13">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C60" s="13">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D60" s="14">
-        <v>7.3999999999999996E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="E60" s="13">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F60" s="13">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G60" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H60" s="13">
-        <v>0.28999999999999998</v>
+        <v>0.43</v>
       </c>
       <c r="I60" s="13">
         <v>0</v>
@@ -3444,31 +3444,31 @@
         <v>72</v>
       </c>
       <c r="B61" s="10">
-        <v>9170</v>
+        <v>10649</v>
       </c>
       <c r="C61" s="10">
-        <v>7342</v>
+        <v>8549</v>
       </c>
       <c r="D61" s="11">
-        <v>0.249</v>
+        <v>0.246</v>
       </c>
       <c r="E61" s="10">
-        <v>9046</v>
+        <v>10526</v>
       </c>
       <c r="F61" s="10">
-        <v>7269</v>
+        <v>8485</v>
       </c>
       <c r="G61" s="10">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H61" s="10">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J61" s="10">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="K61" s="10">
         <v>0</v>
@@ -3482,31 +3482,31 @@
         <v>73</v>
       </c>
       <c r="B62" s="13">
-        <v>1731</v>
+        <v>1674</v>
       </c>
       <c r="C62" s="13">
-        <v>905</v>
+        <v>640</v>
       </c>
       <c r="D62" s="14">
-        <v>0.91300000000000003</v>
+        <v>1.617</v>
       </c>
       <c r="E62" s="13">
-        <v>1645</v>
+        <v>1601</v>
       </c>
       <c r="F62" s="13">
-        <v>864</v>
+        <v>616</v>
       </c>
       <c r="G62" s="13">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H62" s="13">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I62" s="13" t="s">
         <v>17</v>
       </c>
       <c r="J62" s="13">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="K62" s="13">
         <v>0</v>
@@ -3520,25 +3520,25 @@
         <v>74</v>
       </c>
       <c r="B63" s="13">
-        <v>2345</v>
+        <v>2772</v>
       </c>
       <c r="C63" s="13">
-        <v>2014</v>
+        <v>2533</v>
       </c>
       <c r="D63" s="14">
-        <v>0.16400000000000001</v>
+        <v>9.4E-2</v>
       </c>
       <c r="E63" s="13">
-        <v>2327</v>
+        <v>2749</v>
       </c>
       <c r="F63" s="13">
-        <v>1997</v>
+        <v>2513</v>
       </c>
       <c r="G63" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H63" s="13">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I63" s="13">
         <v>0</v>
@@ -3558,25 +3558,25 @@
         <v>75</v>
       </c>
       <c r="B64" s="13">
-        <v>5093</v>
+        <v>6203</v>
       </c>
       <c r="C64" s="13">
-        <v>4423</v>
+        <v>5376</v>
       </c>
       <c r="D64" s="14">
-        <v>0.152</v>
+        <v>0.154</v>
       </c>
       <c r="E64" s="13">
-        <v>5074</v>
+        <v>6176</v>
       </c>
       <c r="F64" s="13">
-        <v>4408</v>
-      </c>
-      <c r="G64" s="13">
-        <v>19</v>
+        <v>5356</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="H64" s="13">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I64" s="13">
         <v>0</v>
@@ -3596,25 +3596,25 @@
         <v>76</v>
       </c>
       <c r="B65" s="10">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C65" s="10">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="D65" s="11">
-        <v>6.0000000000000001E-3</v>
+        <v>-0.22600000000000001</v>
       </c>
       <c r="E65" s="10">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F65" s="10">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="G65" s="10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H65" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I65" s="10">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>17</v>
       </c>
       <c r="L65" s="10">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3634,19 +3634,19 @@
         <v>77</v>
       </c>
       <c r="B66" s="13">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C66" s="13">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="D66" s="14">
-        <v>1.4E-2</v>
+        <v>-0.20599999999999999</v>
       </c>
       <c r="E66" s="13">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F66" s="13">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="G66" s="13">
         <v>0</v>
@@ -3671,26 +3671,26 @@
       <c r="A67" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B67" s="13">
-        <v>12</v>
+      <c r="B67" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="C67" s="13">
-        <v>13</v>
-      </c>
-      <c r="D67" s="14">
-        <v>-7.6999999999999999E-2</v>
+        <v>19</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>17</v>
       </c>
       <c r="F67" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G67" s="13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H67" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I67" s="13">
         <v>0</v>
@@ -3702,7 +3702,7 @@
         <v>17</v>
       </c>
       <c r="L67" s="13">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3710,25 +3710,25 @@
         <v>79</v>
       </c>
       <c r="B68" s="10">
-        <v>17249</v>
+        <v>18815</v>
       </c>
       <c r="C68" s="10">
-        <v>16630</v>
+        <v>19338</v>
       </c>
       <c r="D68" s="11">
-        <v>3.6999999999999998E-2</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="E68" s="10">
-        <v>16101</v>
+        <v>17741</v>
       </c>
       <c r="F68" s="10">
-        <v>15378</v>
+        <v>17901</v>
       </c>
       <c r="G68" s="10">
-        <v>1065</v>
+        <v>1003</v>
       </c>
       <c r="H68" s="10">
-        <v>1135</v>
+        <v>1301</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>17</v>
@@ -3737,10 +3737,10 @@
         <v>3</v>
       </c>
       <c r="K68" s="10">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="L68" s="10">
-        <v>114</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
